--- a/20190131_Sample_and_Plate_Distribution_PilotStudy.xlsx
+++ b/20190131_Sample_and_Plate_Distribution_PilotStudy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvb740/MarieCurie_Work/CellCounting_TaskForce/FlowCytometryAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA66800-2C36-F244-8A8B-5A8FC3F06B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F9516A-441B-4A4A-B0CF-AD5A532D46AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1000" windowWidth="33700" windowHeight="19100" firstSheet="10" activeTab="17" xr2:uid="{F7213384-C97A-EE47-9AB8-0FEE81E3180D}"/>
+    <workbookView xWindow="180" yWindow="1640" windowWidth="33700" windowHeight="19100" firstSheet="11" activeTab="21" xr2:uid="{F7213384-C97A-EE47-9AB8-0FEE81E3180D}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples_P1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="P5_Print_Sandra" sheetId="20" r:id="rId19"/>
     <sheet name="PlateDistributionN" sheetId="21" r:id="rId20"/>
     <sheet name="PlateDistribution" sheetId="2" r:id="rId21"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId22"/>
+    <sheet name="Layout_DIRECT" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="362">
   <si>
     <t>t1</t>
   </si>
@@ -858,10 +858,280 @@
     <t>Cnt</t>
   </si>
   <si>
-    <t>Cnt_L</t>
-  </si>
-  <si>
-    <t>Cnt_S</t>
+    <t>Contr_Ali1_r3</t>
+  </si>
+  <si>
+    <t>P1_r1</t>
+  </si>
+  <si>
+    <t>P1_r2</t>
+  </si>
+  <si>
+    <t>P1_r3</t>
+  </si>
+  <si>
+    <t>P2_r1</t>
+  </si>
+  <si>
+    <t>P2_r2</t>
+  </si>
+  <si>
+    <t>P2_r3</t>
+  </si>
+  <si>
+    <t>P1_uns</t>
+  </si>
+  <si>
+    <t>P25_r1</t>
+  </si>
+  <si>
+    <t>P26_r1</t>
+  </si>
+  <si>
+    <t>P27_r1</t>
+  </si>
+  <si>
+    <t>P28_r1</t>
+  </si>
+  <si>
+    <t>P29_r1</t>
+  </si>
+  <si>
+    <t>P30_r1</t>
+  </si>
+  <si>
+    <t>P25_r2</t>
+  </si>
+  <si>
+    <t>P26_r2</t>
+  </si>
+  <si>
+    <t>P27_r2</t>
+  </si>
+  <si>
+    <t>P28_r2</t>
+  </si>
+  <si>
+    <t>P29_r2</t>
+  </si>
+  <si>
+    <t>P30_r2</t>
+  </si>
+  <si>
+    <t>P25_r3</t>
+  </si>
+  <si>
+    <t>P26_r3</t>
+  </si>
+  <si>
+    <t>P27_r3</t>
+  </si>
+  <si>
+    <t>P29_r3</t>
+  </si>
+  <si>
+    <t>P28_r3</t>
+  </si>
+  <si>
+    <t>P30_r3</t>
+  </si>
+  <si>
+    <t>P3_r1</t>
+  </si>
+  <si>
+    <t>P4_r1</t>
+  </si>
+  <si>
+    <t>P5_r1</t>
+  </si>
+  <si>
+    <t>P6_r1</t>
+  </si>
+  <si>
+    <t>P7_r1</t>
+  </si>
+  <si>
+    <t>P8_r1</t>
+  </si>
+  <si>
+    <t>P9_r1</t>
+  </si>
+  <si>
+    <t>P10_r1</t>
+  </si>
+  <si>
+    <t>P11_r1</t>
+  </si>
+  <si>
+    <t>P12_r1</t>
+  </si>
+  <si>
+    <t>P3_r2</t>
+  </si>
+  <si>
+    <t>P4_r2</t>
+  </si>
+  <si>
+    <t>P5_r2</t>
+  </si>
+  <si>
+    <t>P6_r2</t>
+  </si>
+  <si>
+    <t>P7_r2</t>
+  </si>
+  <si>
+    <t>P8_r2</t>
+  </si>
+  <si>
+    <t>P9_r2</t>
+  </si>
+  <si>
+    <t>P10_r2</t>
+  </si>
+  <si>
+    <t>P11_r2</t>
+  </si>
+  <si>
+    <t>P12_r2</t>
+  </si>
+  <si>
+    <t>P3_r3</t>
+  </si>
+  <si>
+    <t>P4_r3</t>
+  </si>
+  <si>
+    <t>P5_r3</t>
+  </si>
+  <si>
+    <t>P6_r3</t>
+  </si>
+  <si>
+    <t>P7_r3</t>
+  </si>
+  <si>
+    <t>P8_r3</t>
+  </si>
+  <si>
+    <t>P9_r3</t>
+  </si>
+  <si>
+    <t>P10_r3</t>
+  </si>
+  <si>
+    <t>P11_r3</t>
+  </si>
+  <si>
+    <t>P12_r3</t>
+  </si>
+  <si>
+    <t>P13_r1</t>
+  </si>
+  <si>
+    <t>P14_r1</t>
+  </si>
+  <si>
+    <t>P15_r1</t>
+  </si>
+  <si>
+    <t>P16_r1</t>
+  </si>
+  <si>
+    <t>P17_r1</t>
+  </si>
+  <si>
+    <t>P18_r1</t>
+  </si>
+  <si>
+    <t>P19_r1</t>
+  </si>
+  <si>
+    <t>P20_r1</t>
+  </si>
+  <si>
+    <t>P21_r1</t>
+  </si>
+  <si>
+    <t>P22_r1</t>
+  </si>
+  <si>
+    <t>P23_r1</t>
+  </si>
+  <si>
+    <t>P24_r1</t>
+  </si>
+  <si>
+    <t>P13_r2</t>
+  </si>
+  <si>
+    <t>P14_r2</t>
+  </si>
+  <si>
+    <t>P15_r2</t>
+  </si>
+  <si>
+    <t>P16_r2</t>
+  </si>
+  <si>
+    <t>P17_r2</t>
+  </si>
+  <si>
+    <t>P18_r2</t>
+  </si>
+  <si>
+    <t>P19_r2</t>
+  </si>
+  <si>
+    <t>P20_r2</t>
+  </si>
+  <si>
+    <t>P21_r2</t>
+  </si>
+  <si>
+    <t>P22_r2</t>
+  </si>
+  <si>
+    <t>P23_r2</t>
+  </si>
+  <si>
+    <t>P24_r2</t>
+  </si>
+  <si>
+    <t>P13_r3</t>
+  </si>
+  <si>
+    <t>P14_r3</t>
+  </si>
+  <si>
+    <t>P15_r3</t>
+  </si>
+  <si>
+    <t>P16_r3</t>
+  </si>
+  <si>
+    <t>P17_r3</t>
+  </si>
+  <si>
+    <t>P18_r3</t>
+  </si>
+  <si>
+    <t>P19_r3</t>
+  </si>
+  <si>
+    <t>P20_r3</t>
+  </si>
+  <si>
+    <t>P21_r3</t>
+  </si>
+  <si>
+    <t>P22_r3</t>
+  </si>
+  <si>
+    <t>P23_r3</t>
+  </si>
+  <si>
+    <t>P24_r3</t>
   </si>
 </sst>
 </file>
@@ -907,7 +1177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +1199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1008,6 +1284,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5331,7 +5608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3007426B-F4BA-304C-BDFF-12BCDB6462E2}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" activeCellId="12" sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20 C22 C24 C26"/>
     </sheetView>
   </sheetViews>
@@ -7102,7 +7379,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7811,668 +8088,379 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2CF202-76BC-7F46-B421-948FDEAB2B19}">
-  <dimension ref="A1:A131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6445A84C-2D4A-ED4A-A478-77D2C6571413}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="29">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29">
+        <v>6</v>
+      </c>
+      <c r="H1" s="29">
+        <v>7</v>
+      </c>
+      <c r="I1" s="29">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29">
+        <v>9</v>
+      </c>
+      <c r="K1" s="29">
+        <v>10</v>
+      </c>
+      <c r="L1" s="29">
+        <v>11</v>
+      </c>
+      <c r="M1" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L4" t="s">
+        <v>314</v>
+      </c>
+      <c r="M4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J5" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L5" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" t="s">
+        <v>335</v>
+      </c>
+      <c r="L6" t="s">
+        <v>336</v>
+      </c>
+      <c r="M6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I8" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K8" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" t="s">
+        <v>360</v>
+      </c>
+      <c r="M8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>271</v>
+      <c r="M9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
